--- a/EXPORTER_PORTAL/input_data/datapool/Exporter_Regression.xlsx
+++ b/EXPORTER_PORTAL/input_data/datapool/Exporter_Regression.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA104039-D35D-4FA6-9C69-01F831C138F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841FF373-0203-491D-ADE7-4E45D00697C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/EXPORTER_PORTAL/input_data/datapool/Exporter_Regression.xlsx
+++ b/EXPORTER_PORTAL/input_data/datapool/Exporter_Regression.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841FF373-0203-491D-ADE7-4E45D00697C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8233539F-A6CC-49A2-A2FC-EE0FA54B6EDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="789" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="410">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -820,19 +820,7 @@
     <t>Create 'Video Library' content</t>
   </si>
   <si>
-    <t>public title 8</t>
-  </si>
-  <si>
-    <t>public title 10</t>
-  </si>
-  <si>
-    <t>public title 13</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>######</t>
   </si>
   <si>
     <t>ITA_Employee</t>
@@ -849,86 +837,6 @@
   <si>
     <t>y using our content, products &amp; services you agree to our Terms of Service and Privacy Policy. 
 The information in this site is based on different reviews made by third parties, as well as own view and sources. Reproduction in whole or in part in any form or medium without express written permission of Affiliate Marketing Corp is prohibited..</t>
-  </si>
-  <si>
-    <t>Helping you build a website 
-Do you want to create a website, but don’t have coding experience? We provide thorough comparisons of the most popular and successful website builders. Take a look at our analyses - we’ve pooled our experts’ knowledge to help you decide which website builder will meet your particular needs.
-Building your website
-You may not be a web designer or a professional coder - that’s where website builders come in. They facilitate the process of creating a website, making it accessible to everyone, regardless of your programming know-how. Using website builders’ streamlined and premade templates and themes, you can easily launch a professional website.
-Choosing a website builder
-What kind of website do you want to create? A personal website might have a cleaner,  simpler design, while an online store requires a different set of strategies and resources. We are here to walk you through these decisions and provide tips to help you make the best decision.</t>
-  </si>
-  <si>
-    <t>Title of Biography</t>
-  </si>
-  <si>
-    <t>Title of Feature Article</t>
-  </si>
-  <si>
-    <t>Title of How To</t>
-  </si>
-  <si>
-    <t>Title of Image Library</t>
-  </si>
-  <si>
-    <t>Title of Internship</t>
-  </si>
-  <si>
-    <t>Title of Knowledge Product</t>
-  </si>
-  <si>
-    <t>Title of New Blog</t>
-  </si>
-  <si>
-    <t>Publich Title of Biography</t>
-  </si>
-  <si>
-    <t>Publich Title of Feature Article</t>
-  </si>
-  <si>
-    <t>Publich Title of How To</t>
-  </si>
-  <si>
-    <t>Publich Title of Image Library</t>
-  </si>
-  <si>
-    <t>Publich Title of Internship</t>
-  </si>
-  <si>
-    <t>Publich Title of Knowledge Product</t>
-  </si>
-  <si>
-    <t>Publich Title of New Blog</t>
-  </si>
-  <si>
-    <t>Title of Press Release</t>
-  </si>
-  <si>
-    <t>Publich Title of Press Release</t>
-  </si>
-  <si>
-    <t>Title of Service Offering</t>
-  </si>
-  <si>
-    <t>Publich Title of Service Offering</t>
-  </si>
-  <si>
-    <t>Title of Success Story</t>
-  </si>
-  <si>
-    <t>Publich Title of Success Story</t>
-  </si>
-  <si>
-    <t>Title of Trade Lead</t>
-  </si>
-  <si>
-    <t>Publich Title of Trade Lead</t>
-  </si>
-  <si>
-    <t>Title of  Video Library</t>
-  </si>
-  <si>
-    <t>Publich Title of Video Library</t>
   </si>
   <si>
     <t>Trade_Lead_Title</t>
@@ -955,32 +863,10 @@
 Canada (Government)</t>
   </si>
   <si>
-    <t>Creating a service offering in the Service Catalog
-A service offering defines a level of service for a price: it combines the service (utility) and a service level target (warranty) to bring value to the customer. 
-For example, the Calbro IT organization offers different service offerings, or levels, for a email service based on response times. Each service offering costs a different amount based on the service level targets.</t>
-  </si>
-  <si>
-    <t>You can define service offerings based on how you want to manage your services. For example, if managing your services by location is important to your business, you might create the service offerings for Email-US, Email-Europe, and Email-Asia. If managing services by organizations and their resource demands, you might have service offerings for Finance-Small, Finance-Medium, Finance-Large, Support-Medium, and Support-Large to customize for the different storage requirements for each organization. 
-In the Service Catalog, you can further define a service offering:
-Associate a service offering with a technical service.
-Add options to the service offering for end users to select.
-All technical and business services must have at least one service offering and can have more than one.
-When you create a service level target in the Service Catalog, it does not create a record in nor retrieve data from BMC Service Level Management. For more information, see :</t>
-  </si>
-  <si>
-    <t>he also edited Astonishing Stories, a companion science fiction publication. Pohl left in mid-1941 and Super Science Stories was given to Alden H. Norton to edit; a few months later Norton rehired Pohl as an assistant. Popular gave Pohl a very low budget, so most manuscripts submitted to Super Science Stories had already been rejected by the higher-paying magazines. This made it difficult to acquire good fiction, but Pohl was able to acquire stories for the early issues from the Futurians, a group of young science fiction fans and aspiring writers. 
-Super Science Stories was an initial success, and within a year Popular increased Pohl's budget slightly, allowing him to pay a bonus rate on occasion. Pohl wrote many stories himself, to fill the magazine and to augment his salary. He managed to obtain stories by writers who subsequently became very well known, such as Isaac Asimov and Robert Heinlein. After Pohl entered the army in early 1943, wartime paper shortages led Popular to cease publication of Super Science Stories. The final issue of the first run was dated May of that year. In 1949 the title was revived with Ejler Jakobsson as editor; this version, which included many reprinted stories, lasted almost three years, with the last issue dated August 1951. A Canadian reprint edition of the first run included material from both Super Science Stories and Astonishing Stories; it was unusual in that it published some original fiction rather than just reprints. There were also Canadian and British reprint editions of the second incarnation of the magazine. 
-The magazine was never regarded as one of the leading titles of the genre, but has received qualified praise from science fiction critics and historians. Science fiction historian Raymond Thompson describes it as "one of the most interesting magazines to appear during the 1940s", despite the variable quality of the stories.[1] Critics Brian Stableford and Peter Nicholls comment that the magazine "had a greater importance to the history of sf than the quality of its stories would suggest; it was an important training ground</t>
-  </si>
-  <si>
     <t>In computing, a news aggregator, also termed a feed aggregator, feed reader, news reader, RSS reader or simply an aggregator, is client software or a web application which aggregates syndicated web content such as online newspapers, blogs, podcasts, and video blogs (vlogs) in one location for easy viewing. The updates distributed may include journal tables of contents, podcasts, videos, and news items.</t>
   </si>
   <si>
     <t xml:space="preserve">A press release, news release, media release, press statement or video release is an official statement delivered to members of the news media for the purpose of providing information, an official statement, or making an announcement. A press release is traditionally composed of nine structural elements. Press releases can be delivered to members of the media both physically and electronically. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press release material can benefit media corporations because they help decrease costs and improve the amount of material a firm can output in a certain amount of time. Due to the material being pre-packaged, press releases save journalists time, not only in writing a story, but also the time and money it would have taken to capture the news firsthand.[1] 
-Although using a press release can save a company time and money, it constrains the format and style of distributed media. In the digital age, consumers want to get their information instantly which puts pressure on the news media to output as much material as possible. This may cause news media companies to heavily rely on press releases in order to create stories. </t>
   </si>
   <si>
     <t>In the traditional distribution model, the business, political campaign, or other entity releasing information to the media hires a publicity agency to write and distribute written information to the newswires.[6] The newswire then disseminates the information as it is received or as investigated by a journalist. 
@@ -991,64 +877,496 @@
 As the Internet has assumed growing prominence in the news cycle, press release writing styles have evolved. Editors of online newsletters, for instance, often lack the staff to convert traditional press release prose into print-ready copy.</t>
   </si>
   <si>
-    <t>A blog (a truncation of "weblog")[1] is a discussion or informational website published on the World Wide Web consisting of discrete, often informal diary-style text entries (posts). Posts are typically displayed in reverse chronological order, so that the most recent post appears first, at the top of the web page. Until 2009, blogs were usually the work of a single individual,[citation needed] occasionally of a small group, and often covered a single subject or topic</t>
-  </si>
-  <si>
     <t xml:space="preserve">The emergence and growth of blogs in the late 1990s coincided with the advent of web publishing tools that facilitated the posting of content by non-technical users who did not have much experience with HTML or computer programming. Previously, a knowledge of such technologies as HTML and File Transfer Protocol had been required to publish content on the Web, and early Web users therefore tended to be hackers and computer enthusiasts. In the 2010s, the majority are interactive Web 2.0 websites, allowing visitors to leave online comments, and it is this interactivity that distinguishes them from other static websites.[2] In that sense, blogging can be seen as a form of social networking service. Indeed, bloggers do not only produce content to post on their blogs, but also often build social relations with their readers and other bloggers.[3] However, there are high-readership blogs which do not allow comments. </t>
   </si>
   <si>
-    <t>By 2004, the role of blogs became increasingly mainstream, as political consultants, news services, and candidates began using them as tools for outreach and opinion forming. Blogging was established by politicians and political candidates to express opinions on war and other issues and cemented blogs' role as a news source. (See Howard Dean and Wesley Clark.) Even politicians not actively campaigning, such as the UK's Labour Party's MP Tom Watson, began to blog to bond with constituents. In January 2005, Fortune magazine listed eight bloggers whom business people "could not ignore": Peter Rojas, Xeni Jardin, Ben Trott, Mena Trott, Jonathan Schwartz, Jason Goldman, Robert Scoble, and Jason Calacanis.[26]</t>
-  </si>
-  <si>
     <t>Individuals or organization may aggregate selected feeds on specific topic, product or service and provide combined view for its readers. This allows readers to concentrate on reading instead of searching for quality on-topic content and managing subscriptions. Many such aggregation called planets from name of Planet (software) that perform such aggregation, hosting sites usually have planet. subdomain in domain name (like http://planet.gnome.org/).</t>
   </si>
   <si>
-    <t>After the Deluge (painting)Annunciation (Memling)Beaune AltarpieceThe Battle of Alexander at IssusThe Blind Leading the BlindBoydell Shakespeare GalleryBritomart Redeems Faire AmoretCampbell's Soup CansCandaules, King of Lydia, Shews his Wife by Stealth to Gyges, One of his Ministers, as She Goes to BedCloud GateThe Colossus of Rhodes (Dalí)The Combat: Woman Pleading for the VanquishedCrown FountainCrucifix (Cimabue, Santa Croce)Crucifixion and Last Judgement diptychThe Dawn of Love (painting)DenbiesThe Destroying Angel and Daemons of Evil Interrupting the Orgies of the Vicious and IntemperateThe Disasters of WarDresden TriptychDrowning GirlDürer's RhinocerosEarly Netherlandish paintingThe Entombment (Bouts)Equestrian statue of Edward HornerAn Experiment on a Bird in the Air Pump</t>
-  </si>
-  <si>
-    <t>The Founding Ceremony of the NationFountain of TimeFour Freedoms (Norman Rockwell)The Four Stages of CrueltyFour Times of the DayFragment of a CrucifixionFreedom from Want (painting)Freedom of Worship (painting)Funerary artFunerary Monument to Sir John HawkwoodThe Garden of Earthly DelightsGothic boxwood miniatureHead VIHoly Thorn ReliquaryHope (painting)Hours of Mary of BurgundyLas MeninasLéal SouvenirLook MickeyMadonna in the ChurchThe Magdalen ReadingMigration of the Serbs (painting)Mosaics of DelosMuseum of Bad ArtMusidora: The Bather 'At the Doubtful Breeze Alarmed'Nativity (Christus)Olmec colossal headsOviriPope Paul III and His GrandsonsPortrait Diptych of Dürer's ParentsPortrait of a Lady (van der Weyden)Portrait of Maria PortinariPortrait of Monsieur BertinPortrait of a Young Girl (Christus)Preparing for a Fancy Dress BallThe Princesse de Broglie
-The Raft of the MedusaRestoration of the Sistine Chapel frescoesRokeby VenusSaint Francis Receiving the Stigmata (van Eyck)Saint Luke Drawing the VirginSeptember MornThe Sirens and UlyssesStatue of LibertyStreatham portraitSutton Hoo Helmet (sculpture)The Swimming HoleThe Third of May 1808Three Beauties of the Present DayThree Studies for Figures at the Base of a CrucifixionTriptych, May–June 1973The Triumph of CleopatraUkiyo-eVirgin and Child Enthroned (van der Weyden)Virgin and Child with Canon van der PaeleWarlugulongWeather MachineWells CathedralWhaam!Witches' Sabbath (The Great He-Goat)The World Before the FloodThe Wrestlers (Etty)Youth on the Prow, and Pleasure at the Helm</t>
-  </si>
-  <si>
     <t xml:space="preserve">A biography, or simply bio, is a detailed description of a person's life. It involves more than just the basic facts like education, work, relationships, and death; it portrays a person's experience of these life events. Unlike a profile or curriculum vitae (résumé), a biography presents a subject's life story, highlighting various aspects of his or her life, including intimate details of experience, and may include an analysis of the subject's personality. </t>
   </si>
   <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Content_Media</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>TC_TAG_016</t>
+  </si>
+  <si>
+    <t>Create_Content_About_Us</t>
+  </si>
+  <si>
+    <t>Create 'About Us' content</t>
+  </si>
+  <si>
     <t xml:space="preserve">One of the earliest biographers was Cornelius Nepos, who published his work Excellentium Imperatorum Vitae ("Lives of outstanding generals") in 44 BC. Longer and more extensive biographies were written in Greek by Plutarch, in his Parallel Lives, published about 80 A.D. In this work famous Greeks are paired with famous Romans, for example the orators Demosthenes and Cicero, or the generals Alexander the Great and Julius Caesar; some fifty biographies from the work survive. Another well-known collection of ancient biographies is De vita Caesarum ("On the Lives of the Caesars") by Suetonius, written about AD 121 in the time of the emperor Hadrian. 
-In the early Middle Ages (AD 400 to 1450), there was a decline in awareness of the classical culture in Europe. During this time, the only repositories of knowledge and records of the early history in Europe were those of the Roman Catholic Church. Hermits, monks, and priests used this historic period to write biographies. Their subjects were usually restricted to the church fathers, martyrs, popes, and saints. Their works were meant to be inspirational to the people and vehicles for conversion to Christianity (see Hagiography). One significant secular example of a biography from this period is the life of Charlemagne by his courtier Einhard. </t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>Content_Media</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>TC_TAG_016</t>
-  </si>
-  <si>
-    <t>Create_Content_About_Us</t>
-  </si>
-  <si>
-    <t>Create 'About Us' content</t>
-  </si>
-  <si>
-    <t>Title of  About Us</t>
-  </si>
-  <si>
-    <t>Title of Sub-topic page</t>
-  </si>
-  <si>
-    <t>Title of Series Aggregator</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the Deluge (painting)Annunciation (Memling)Beaune AltarpieceThe Battle of Alexander at IssusThe Blind Leading the BlindBoydell Shakespeare GalleryBritomart Redeems Faire AmoretCampbell's Soup CansCandaules, King of Lydia, Shews his Wife by Stealth to Gyges, One of his Ministers, as She Goes to BedCloud GateThe Colossus of Rhodes (Dalí)The Combat: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Founding Ceremony of the NationFountain of TimeFour Freedoms (Norman Rockwell)The Four Stages of CrueltyFour Times of the DayFragment of a CrucifixionFreedom from Want (painting)Freedom of Worship (painting)Funerary artFunerary Monument to Sir John HawkwoodThe Garden of Earthly DelightsGothic boxwood miniatureHead VIHoly Thorn ReliquaryHope (painting)Hours of Mary of BurgundyLas MeninasLéal SouvenirLook MickeyMadonna in the ChurchThe Magdalen ReadingMigration of the Serbs (painting)Mosaics of DelosMuseum of Bad ArtMusidora: The Bather 'At the Doubtful Breeze Alarmed'Nativity (Christus)Olmec colossal headsOviriPope Paul III and His GrandsonsPortrait Diptych of Dürer's ParentsPortrait of a Lady (van der Weyden)Portrait of Maria PortinariPortrait of Monsieur BertinPortrait of a Young Girl (Christus)Preparing for a Fancy Dress BallThe Princesse de Broglie
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helping you build a website 
+Do you want to create a website, but don’t have coding experience? We provide thorough comparisons of the most popular and successful website builders. Take a look at our analyses - we’ve pooled our experts’ knowledge to help you decide which website builder will meet your particular needs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By 2004, the role of blogs became increasingly mainstream, as political consultants, news services, and candidates began using them as tools for outreach and opinion forming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Posts are typically displayed in reverse chronological order, so that the most recent post appears first, at the top of the web page. Until 2009, blogs were usually the work of a single individual,[citation needed] occasionally of a small group, and often covered a single subject or topic</t>
+  </si>
+  <si>
+    <t>Press release material can benefit media corporations because they help decrease costs and improve the amount of material a firm can output in a certain amount of time. Due to the material being pre-packaged, press releases save journalists time, not only in writing a story, but also the time and money it would have taken to capture the news firsthand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a service offering in the Service Catalog
+A service offering defines a level of service for a price: it combines the service (utility) and a service level target (warranty) to bring value to the customer. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can define service offerings based on how you want to manage your services. For example, if managing your services by location is important to your business, you might create the service offerings for Email-US, Email-Europe, and Email-Asia. If managing services by organizations and their resource demands, you might have service offerings for Finance-Small, Finance-Medium, Finance-Large, Support-Medium, and Support-Large to customize for the different storage requirements for each organization. 
+</t>
+  </si>
+  <si>
+    <t>There stand several such examples all over the world. Most of the iconic personalities have previously faced serious failures in their life’s struggles.There stand several such examples all over the world. Most of the iconic personalities have previously faced serious failures in their life’s struggles.</t>
+  </si>
+  <si>
+    <t>TC_TAG_017</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S1' content</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S1</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S2</t>
+  </si>
+  <si>
+    <t>TC_TAG_018</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S3</t>
+  </si>
+  <si>
+    <t>TC_TAG_019</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S4</t>
+  </si>
+  <si>
+    <t>TC_TAG_020</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S5</t>
+  </si>
+  <si>
+    <t>TC_TAG_021</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S6</t>
+  </si>
+  <si>
+    <t>TC_TAG_022</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S7</t>
+  </si>
+  <si>
+    <t>TC_TAG_023</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S8</t>
+  </si>
+  <si>
+    <t>TC_TAG_024</t>
+  </si>
+  <si>
+    <t>Create_Section_Landing_Page_S9</t>
+  </si>
+  <si>
+    <t>TC_TAG_025</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S2' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S3' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S4' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S5' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S6' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S7' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S8' content</t>
+  </si>
+  <si>
+    <t>Create 'Section Landing Page - S9' content</t>
+  </si>
+  <si>
+    <t>TC_TAG_026</t>
+  </si>
+  <si>
+    <t>TC_TAG_027</t>
+  </si>
+  <si>
+    <t>TC_TAG_028</t>
+  </si>
+  <si>
+    <t>TC_TAG_029</t>
+  </si>
+  <si>
+    <t>TC_TAG_030</t>
+  </si>
+  <si>
+    <t>TC_TAG_031</t>
+  </si>
+  <si>
+    <t>TC_TAG_032</t>
+  </si>
+  <si>
+    <t>TC_TAG_033</t>
+  </si>
+  <si>
+    <t>TC_TAG_034</t>
+  </si>
+  <si>
+    <t>TC_TAG_035</t>
+  </si>
+  <si>
+    <t>TC_TAG_036</t>
+  </si>
+  <si>
+    <t>TC_TAG_037</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T1</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T2</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T3</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T4</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T5</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T6</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T7</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T8</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T9</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T10</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T11</t>
+  </si>
+  <si>
+    <t>Create_Topic_Landing_Page_T12</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T1' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T2' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T3' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T4' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T5' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T6' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T7' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T8' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T9' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T10' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T11' content</t>
+  </si>
+  <si>
+    <t>Create 'Topic Landing Page - T12' content</t>
+  </si>
+  <si>
+    <t>Public Title of  About Us</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S1</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S2</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S3</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S5</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S6</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S7</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S8</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S9</t>
+  </si>
+  <si>
+    <t>Public Section Landing Page - S4</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T1</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T2</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T3</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T4</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T5</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T6</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T7</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T8</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T9</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T10</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T11</t>
+  </si>
+  <si>
+    <t>Public Topic Landing Page - T12</t>
+  </si>
+  <si>
+    <t>Internal Biography</t>
+  </si>
+  <si>
+    <t>Internal Feature Article</t>
+  </si>
+  <si>
+    <t>Internal How To</t>
+  </si>
+  <si>
+    <t>Internal  Image Library</t>
+  </si>
+  <si>
+    <t>Internal Internship</t>
+  </si>
+  <si>
+    <t>Internal Title of Knowledge Product</t>
+  </si>
+  <si>
+    <t>Internal Title of New Blog</t>
+  </si>
+  <si>
+    <t>Internal  Press Release</t>
+  </si>
+  <si>
+    <t>Internal Series Aggregator</t>
+  </si>
+  <si>
+    <t>Internal Service Offering</t>
+  </si>
+  <si>
+    <t>Internal Success Story</t>
+  </si>
+  <si>
+    <t>Internal Sub-topic page</t>
+  </si>
+  <si>
+    <t>Internal Trade Lead</t>
+  </si>
+  <si>
+    <t>Internal Video Library</t>
+  </si>
+  <si>
+    <t>Internal About Us</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S1</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S2</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S3</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S4</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S5</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S6</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S7</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S8</t>
+  </si>
+  <si>
+    <t>Internal Section Landing Page - S9</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T1</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T2</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T3</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T4</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T5</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T6</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T7</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T8</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T9</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T10</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T11</t>
+  </si>
+  <si>
+    <t>Internal Topic Landing Page - T12</t>
+  </si>
+  <si>
+    <t>Public Title of Biography</t>
+  </si>
+  <si>
+    <t>Public Title of Feature Article</t>
+  </si>
+  <si>
+    <t>Public Title of How To</t>
+  </si>
+  <si>
+    <t>Public Title of Image Library</t>
+  </si>
+  <si>
+    <t>Public Title of Internship</t>
+  </si>
+  <si>
+    <t>Public Title of Knowledge Product</t>
+  </si>
+  <si>
+    <t>Public Title of New Blog</t>
+  </si>
+  <si>
+    <t>Public Title of Press Release</t>
+  </si>
+  <si>
+    <t>Public Title of Service Offering</t>
+  </si>
+  <si>
+    <t>Public Title of Success Story</t>
+  </si>
+  <si>
+    <t>Public Title of Trade Lead</t>
+  </si>
+  <si>
+    <t>Public Title of Video Library</t>
+  </si>
+  <si>
+    <t>Internal office</t>
+  </si>
+  <si>
+    <t>public title office</t>
+  </si>
+  <si>
+    <t>public title serie aggregator</t>
+  </si>
+  <si>
+    <t>public title sub topic</t>
+  </si>
+  <si>
+    <t>SUMMARY TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BODY TEST
+</t>
+  </si>
+  <si>
+    <t>BODY TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1435,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1156,8 +1487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1185,11 +1515,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1245,12 +1576,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1529,25 +1864,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q17"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.33203125" customWidth="1"/>
@@ -1557,60 +1892,60 @@
     <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="N1" s="29" t="s">
+      <c r="K1" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1629,14 +1964,14 @@
       <c r="F2" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>246</v>
+      <c r="G2" t="s">
+        <v>355</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>183</v>
@@ -1645,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>291</v>
+        <v>408</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>188</v>
@@ -1661,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1678,28 +2013,28 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>356</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>191</v>
@@ -1712,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1729,28 +2064,28 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>357</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>255</v>
+        <v>393</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>191</v>
@@ -1763,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1780,28 +2115,28 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>191</v>
@@ -1814,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1831,28 +2166,28 @@
         <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>359</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>257</v>
+        <v>395</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>191</v>
@@ -1865,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1882,41 +2217,41 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>251</v>
+        <v>235</v>
+      </c>
+      <c r="G7" t="s">
+        <v>360</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="27"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1933,28 +2268,28 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>361</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>259</v>
+        <v>397</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>191</v>
@@ -1967,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="26" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -1984,28 +2319,28 @@
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="G9" t="s">
+        <v>403</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>191</v>
@@ -2013,12 +2348,12 @@
       <c r="O9" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="27"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2035,28 +2370,28 @@
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>260</v>
+        <v>235</v>
+      </c>
+      <c r="G10" t="s">
+        <v>362</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>191</v>
@@ -2069,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="26" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -2086,28 +2421,28 @@
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>300</v>
+        <v>254</v>
+      </c>
+      <c r="G11" t="s">
+        <v>363</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>191</v>
@@ -2115,12 +2450,12 @@
       <c r="O11" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="P11" s="24"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2137,28 +2472,28 @@
         <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>262</v>
+        <v>235</v>
+      </c>
+      <c r="G12" t="s">
+        <v>364</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>263</v>
+        <v>399</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>191</v>
@@ -2171,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2188,28 +2523,28 @@
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="G13" t="s">
+        <v>365</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>191</v>
@@ -2222,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="26" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="26" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -2239,28 +2574,28 @@
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>299</v>
+        <v>235</v>
+      </c>
+      <c r="G14" t="s">
+        <v>366</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="N14" s="24" t="s">
         <v>191</v>
@@ -2268,12 +2603,12 @@
       <c r="O14" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="24"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2290,41 +2625,41 @@
         <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>266</v>
+        <v>235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>367</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="P15" s="27"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2341,28 +2676,28 @@
         <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>268</v>
+        <v>235</v>
+      </c>
+      <c r="G16" t="s">
+        <v>368</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>269</v>
+        <v>402</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>191</v>
@@ -2375,45 +2710,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>298</v>
+        <v>235</v>
+      </c>
+      <c r="G17" t="s">
+        <v>369</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>275</v>
+        <v>409</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>191</v>
@@ -2426,15 +2761,1087 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>371</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>377</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>379</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>380</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>385</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
+        <v>390</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q17" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K2 E2:E38" xr:uid="{81D51618-FADB-46EE-AC70-7E94A86CBD87}">
+      <formula1>YesOrNo</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q38" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5 K2 E2:E17" xr:uid="{81D51618-FADB-46EE-AC70-7E94A86CBD87}">
-      <formula1>YesOrNo</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:P17" xr:uid="{0F8208B9-3D88-43FD-9288-B9E0822F6F58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O38" xr:uid="{0F8208B9-3D88-43FD-9288-B9E0822F6F58}">
       <formula1>SaveAs</formula1>
     </dataValidation>
   </dataValidations>
@@ -3199,10 +4606,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A05B9F3-97FC-4C3E-AB7C-C685842562E5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3257,6 +4664,142 @@
       </c>
       <c r="B6" s="22" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
